--- a/NP_EX_4_Sunrise.xlsx
+++ b/NP_EX_4_Sunrise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Fall 2020\Cis 13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\School CS\CIS 26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BAC97E-C5A7-4088-A587-EB689BB6DE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228BDB0-7C0A-4B88-9D10-8DC47614279B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9100" yWindow="4260" windowWidth="14400" windowHeight="7810" firstSheet="1" activeTab="1" xr2:uid="{70EE089A-9C9A-4E5D-B3A3-ACA17DE5A737}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="1" xr2:uid="{70EE089A-9C9A-4E5D-B3A3-ACA17DE5A737}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="1" r:id="rId1"/>
@@ -3849,7 +3849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0155BE29-47CD-450F-96DF-A7B9146D2C2B}" type="CELLRANGE">
+                    <a:fld id="{7406735B-3A53-426B-A179-E88C09A45DE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3882,7 +3882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9517447-6A7E-431C-A555-463A817A77D8}" type="CELLRANGE">
+                    <a:fld id="{82565036-AC18-462A-B4E5-5907898CC63F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8003,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="53">
-        <v>44159</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8027,7 +8027,7 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -8346,6 +8346,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E36:F36"/>
@@ -8354,12 +8360,6 @@
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="G32:G43">
     <cfRule type="dataBar" priority="1">
